--- a/biology/Zoologie/Bolitoglossa_alberchi/Bolitoglossa_alberchi.xlsx
+++ b/biology/Zoologie/Bolitoglossa_alberchi/Bolitoglossa_alberchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa alberchi est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa alberchi est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans la région de Los Tuxtlas dans le sud de l'État de Veracruz, dans la région de Chimalapas dans l'extrême Est de l'État d'Oaxaca et dans l'Ouest et le centre de l'État de Chiapas. Elle est présente jusqu'à 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans la région de Los Tuxtlas dans le sud de l'État de Veracruz, dans la région de Chimalapas dans l'extrême Est de l'État d'Oaxaca et dans l'Ouest et le centre de l'État de Chiapas. Elle est présente jusqu'à 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pere Alberch Vie (1954-1998).
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>García-París, Parra-Olea, Brame &amp; Wake, 2002 : Systematic revision of the Bolitoglossa mexicana species group (Amphibia: Plethodontidae) with description of a new species from Mexico. Revista Española de Herpetología, vol. 16, p. 43-71.</t>
         </is>
